--- a/2023_game_export_blank.xlsx
+++ b/2023_game_export_blank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8126AC-65A0-457B-AFCD-3A4D0D17E10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF813E4D-8D79-4CC2-90AB-BD4F0D538183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Fiery</t>
-  </si>
-  <si>
-    <t>War</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Fiery Color</t>
+  </si>
+  <si>
+    <t>War Color</t>
+  </si>
+  <si>
+    <t>Fiery Final Score</t>
+  </si>
+  <si>
+    <t>War Final Score</t>
+  </si>
+  <si>
+    <t>Fiery Scored</t>
+  </si>
+  <si>
+    <t>War Scored</t>
   </si>
   <si>
     <t>Great victory?</t>
@@ -93,13 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,85 +430,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <f>COUNTIF(E:E,  "FIERY")</f>
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIFS(D:D, "TRUE", E:E, "FIERY")</f>
+    <row r="2" spans="1:16">
+      <c r="A2"/>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(I:I,  "FIERY")</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIFS(H:H, "TRUE", I:I, "FIERY")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <f>COUNTIF(E:E,  "WAR")</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIFS(D:D, "TRUE", E:E, "WAR")</f>
+    <row r="3" spans="1:16">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF(I:I,  "WAR")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIFS(H:H, "TRUE", I:I, "WAR")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <f>COUNTIF(E:E,  "TIE")</f>
+    <row r="4" spans="1:16">
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(I:I,  "TIE")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <f>I2 + I3 + I4</f>
+    <row r="5" spans="1:16">
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <f>M2 + M3 + M4</f>
         <v>0</v>
       </c>
     </row>
